--- a/hardware/Power/Power_v4/bom/Power_module_v4.xlsx
+++ b/hardware/Power/Power_v4/bom/Power_module_v4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonaCappelle\Documents\Github\sensors\hardware\Power\Power_v4\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42224AC2-AD3E-4244-9542-DD2C8E8514C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771DC31-80AE-496F-AFB5-15C03A2566F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power_module_v4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -37,9 +48,6 @@
     <t>Orientatie</t>
   </si>
   <si>
-    <t>Leverancier en ref</t>
-  </si>
-  <si>
     <t>G***</t>
   </si>
   <si>
@@ -112,21 +120,12 @@
     <t>10 uF</t>
   </si>
   <si>
-    <t>C12,C10,C9,C8,C7,C4,C3,C2,C1</t>
-  </si>
-  <si>
     <t>1 uF</t>
   </si>
   <si>
-    <t>COUT2</t>
-  </si>
-  <si>
     <t>22 uF</t>
   </si>
   <si>
-    <t>CSTOR2,CBATT1,COUT3</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -136,9 +135,6 @@
     <t>BQ24040</t>
   </si>
   <si>
-    <t>D1,D2,D3,D4</t>
-  </si>
-  <si>
     <t>LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
   </si>
   <si>
@@ -232,21 +228,12 @@
     <t>ROK3</t>
   </si>
   <si>
-    <t>1.9 M</t>
-  </si>
-  <si>
     <t>ROK2</t>
   </si>
   <si>
-    <t>5.49 M</t>
-  </si>
-  <si>
     <t>ROK1</t>
   </si>
   <si>
-    <t>5.62M</t>
-  </si>
-  <si>
     <t>ROUT2</t>
   </si>
   <si>
@@ -262,15 +249,9 @@
     <t>ROV2</t>
   </si>
   <si>
-    <t>7.32 M</t>
-  </si>
-  <si>
     <t>ROV1</t>
   </si>
   <si>
-    <t>5.61 M</t>
-  </si>
-  <si>
     <t>S3,S1</t>
   </si>
   <si>
@@ -332,13 +313,172 @@
   </si>
   <si>
     <t>LDR03</t>
+  </si>
+  <si>
+    <t>Ordercode Farnell</t>
+  </si>
+  <si>
+    <t>Ordercode Mouser</t>
+  </si>
+  <si>
+    <t>BQ24040DSQR</t>
+  </si>
+  <si>
+    <t>3008693RL</t>
+  </si>
+  <si>
+    <t>TPS22860DBVR</t>
+  </si>
+  <si>
+    <t>3008896RL</t>
+  </si>
+  <si>
+    <t>BQ25570RGRR</t>
+  </si>
+  <si>
+    <t>3123350RL</t>
+  </si>
+  <si>
+    <t>KP-2012QBC-D</t>
+  </si>
+  <si>
+    <t>KP-2012CGCK</t>
+  </si>
+  <si>
+    <t>KP-2012SURC</t>
+  </si>
+  <si>
+    <t>Tape en reel, afgesneden</t>
+  </si>
+  <si>
+    <t>C0805C104M4RACAUTO</t>
+  </si>
+  <si>
+    <t>Reel</t>
+  </si>
+  <si>
+    <t>C0805C105K4RACTU</t>
+  </si>
+  <si>
+    <t>C0805C226M8PACTU</t>
+  </si>
+  <si>
+    <t>MC01W0805110K</t>
+  </si>
+  <si>
+    <t>MCWR08X1001FTL</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>C0805C106Z8VACTU</t>
+  </si>
+  <si>
+    <t>885012207011</t>
+  </si>
+  <si>
+    <t>MCWR08X1501FTL</t>
+  </si>
+  <si>
+    <t>C12,C10,C9,C8,C7,C4,C1</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>MCWR08X4700FTL</t>
+  </si>
+  <si>
+    <t>MCWR08X2001FTL</t>
+  </si>
+  <si>
+    <t>MCWR08X2702FTL</t>
+  </si>
+  <si>
+    <t>MCWR08X8201FTL</t>
+  </si>
+  <si>
+    <t>1,27M</t>
+  </si>
+  <si>
+    <t>6,81M</t>
+  </si>
+  <si>
+    <t>CRCW08051M27FKEA.</t>
+  </si>
+  <si>
+    <t>CRCW08056M81FKEA.</t>
+  </si>
+  <si>
+    <t>CRCW08058M25FKEA.</t>
+  </si>
+  <si>
+    <t>CRCW08054M75FKEA.</t>
+  </si>
+  <si>
+    <t>CRCW08055M49FKEA.</t>
+  </si>
+  <si>
+    <t>7,15 M</t>
+  </si>
+  <si>
+    <t>CRCW08057M15FKEA.</t>
+  </si>
+  <si>
+    <t>5.49M</t>
+  </si>
+  <si>
+    <t>CRCW08055M10FKEA.</t>
+  </si>
+  <si>
+    <t>5,1M</t>
+  </si>
+  <si>
+    <t>CSTOR2,CBATT1</t>
+  </si>
+  <si>
+    <t>COUT2, COUT3</t>
+  </si>
+  <si>
+    <t>D3,D4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>PIC16F18446-I/SS</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer Part Number (MPN) </t>
+  </si>
+  <si>
+    <t>Per stuk</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>C0805C475K8PACTU</t>
+  </si>
+  <si>
+    <t>M20-9980345</t>
+  </si>
+  <si>
+    <t>NSL 19M51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +612,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -827,10 +979,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1185,21 +1356,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,708 +1391,1082 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2447592</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2409055</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2534050</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3510057</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3510057</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2725611</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2392346</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2773239</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2217974</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2290331</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8529930</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="F19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2668482</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1">
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5">
+        <v>744031220</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1890602</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5">
+        <v>744029100</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1635828</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2129195</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2446904</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2447622</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2447620</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2447732</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="E30" s="9">
+        <v>470</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2447662</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2139131</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2139222</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2139205</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2139232</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2139202</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2139225</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2139209</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3631504</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1022230</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="5">
+        <v>3168335</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>103</v>
-      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hardware/Power/Power_v4/bom/Power_module_v4.xlsx
+++ b/hardware/Power/Power_v4/bom/Power_module_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonaCappelle\Documents\Github\sensors\hardware\Power\Power_v4\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771DC31-80AE-496F-AFB5-15C03A2566F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8440C334-42D5-4023-A9A9-161BC2624043}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power_module_v4" sheetId="1" r:id="rId1"/>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
